--- a/source/burgerKing/src/main/resources/template/Guest Is King.xlsx
+++ b/source/burgerKing/src/main/resources/template/Guest Is King.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\hanbaowang\source\burgerKing\src\main\resources\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="480" windowWidth="20175" windowHeight="7200"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="513">
   <si>
     <t>Guest Is KING</t>
   </si>
@@ -22,63 +27,30 @@
     <t>日期</t>
   </si>
   <si>
-    <t>2015-03-14 22:44:49</t>
-  </si>
-  <si>
     <t>值班经理</t>
   </si>
   <si>
-    <t>Uu</t>
-  </si>
-  <si>
     <t>成绩</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>地区</t>
   </si>
   <si>
-    <t>Ij</t>
-  </si>
-  <si>
     <t>回馈提供者</t>
   </si>
   <si>
-    <t>冯顺</t>
-  </si>
-  <si>
     <t>时间</t>
   </si>
   <si>
-    <t>22:45</t>
-  </si>
-  <si>
     <t>餐厅名字</t>
   </si>
   <si>
-    <t>4318</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>清洁-外部</t>
-  </si>
-  <si>
-    <t>外招/指引牌：清洁可见，维护良好无破损，亮度可见</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>建筑物/外立面：完好</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>垃圾桶：清洁无异味，维护良好无破损，垃圾袋卷边收拢到顾客看不见</t>
   </si>
   <si>
@@ -187,16 +159,10 @@
     <t>服务-大堂</t>
   </si>
   <si>
-    <t>员工或经理在距离餐厅大门1米距离时，遇到顾客准备踏入餐厅，有主动为顾客拉门，并微笑欢迎</t>
-  </si>
-  <si>
     <t>顾客进入餐厅30秒内被员工或经理微笑招呼“你好”/“欢迎光临”，如被指引进入排队线，亦符合要求</t>
   </si>
   <si>
     <t>看到员工或经理认出老顾客，进行个性化招呼“X先生，来啦，今天…”（如餐厅只有检查者一位顾客，则N/A）</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>看到员工或经理开心愉快地与顾客交流</t>
@@ -257,9 +223,6 @@
     <t>服务速度SOS在150秒以内（从检查者站在收银机前开始，到拿到产品离开）</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>吸管等自取物料：充足干净，若顾客取走的吸管为最后一根，即为供应不足。</t>
   </si>
   <si>
@@ -307,10 +270,6 @@
   <si>
     <t>图片描述</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1721,21 +1680,1271 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>N/A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">图片1
-图片2
+    <t>${heads.date}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${heads.manager}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${heads.region}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${heads.feedback}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${heads.time}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${heads.restName}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${heads.score}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外招</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指引牌：清洁可见，维护良好无破损，亮度可见</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C01.score}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C01.testDetailInfo.fieldInfos.NA}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C01.testDetailInfo.fieldInfos.Y}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C01.testDetailInfo.fieldInfos.N}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C01.testDetailInfo.fieldInfos.SCORE}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C01.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${modules.qingjie_waibu.questions.C01.testDetailInfo.evidence}
 </t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C02.score}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C02.testDetailInfo.fieldInfos.NA}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C02.testDetailInfo.fieldInfos.Y}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C02.testDetailInfo.fieldInfos.N}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C02.testDetailInfo.fieldInfos.SCORE}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C02.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C03.score}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C03.testDetailInfo.fieldInfos.NA}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C03.testDetailInfo.fieldInfos.Y}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C03.testDetailInfo.fieldInfos.N}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C03.testDetailInfo.fieldInfos.SCORE}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C03.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C04.score}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C04.testDetailInfo.fieldInfos.NA}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C04.testDetailInfo.fieldInfos.Y}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C04.testDetailInfo.fieldInfos.N}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C04.testDetailInfo.fieldInfos.SCORE}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C04.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C05.score}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C05.testDetailInfo.fieldInfos.NA}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C05.testDetailInfo.fieldInfos.Y}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C05.testDetailInfo.fieldInfos.N}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C05.testDetailInfo.fieldInfos.SCORE}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C05.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C06.score}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C06.testDetailInfo.fieldInfos.NA}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C06.testDetailInfo.fieldInfos.Y}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C06.testDetailInfo.fieldInfos.N}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C06.testDetailInfo.fieldInfos.SCORE}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C06.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C07.score}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C07.testDetailInfo.fieldInfos.NA}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C07.testDetailInfo.fieldInfos.Y}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C07.testDetailInfo.fieldInfos.N}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C07.testDetailInfo.fieldInfos.SCORE}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C07.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>员工或经理在距离餐厅大门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米距离时，遇到顾客准备踏入餐厅，有主动为顾客拉门，并微笑欢迎</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清洁</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外部</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C08.score}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C08.testDetailInfo.fieldInfos.NA}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C08.testDetailInfo.fieldInfos.Y}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C08.testDetailInfo.fieldInfos.N}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C08.testDetailInfo.fieldInfos.SCORE}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C08.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C09.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C09.testDetailInfo.fieldInfos.SCORE}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C09.testDetailInfo.fieldInfos.N}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C09.testDetailInfo.fieldInfos.Y}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C09.testDetailInfo.fieldInfos.NA}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C09.score}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C10.score}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C10.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C10.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C10.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C10.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C10.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C11.score}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C11.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C11.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C11.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C11.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C11.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C12.score}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C12.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C12.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C12.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C12.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C12.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C13.score}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C13.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C13.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C14.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C14.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C14.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C14.score}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C14.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_datang.questions.C14.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C15.score}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C15.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C15.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C15.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C15.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C15.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C16.score}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C16.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C16.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C16.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C16.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C16.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C17.score}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C17.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C17.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C17.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C17.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C17.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C18.score}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C18.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C18.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C18.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C18.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C18.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C19.score}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C19.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C19.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C19.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C19.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C19.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C20.score}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C20.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C20.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C20.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C20.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C20.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C21.score}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C21.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C21.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C21.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C21.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.qingjie_xishoujian.questions.C21.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A10.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A10.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A10.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A10.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A10.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A10.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A11.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A11.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A11.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A11.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A11.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A11.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A12.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A12.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A12.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A12.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A12.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A12.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A13.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A13.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A13.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A13.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A13.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A13.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A14.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A14.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A14.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A14.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A14.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A14.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A15.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A15.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A15.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A15.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A15.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A15.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A16.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A16.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A16.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A16.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A16.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A16.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A17.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A17.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A17.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A17.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A17.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A17.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A18.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A18.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A18.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A18.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A18.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A18.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A19.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A19.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A19.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A19.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A19.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A07.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A07.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A07.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A07.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A07.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A07.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A08.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A08.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A08.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A08.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A08.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A08.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A09.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A09.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A09.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A09.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A09.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_datang.questions.A09.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A01.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A01.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A01.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A01.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A01.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A01.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A02.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A02.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A02.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A02.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A02.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A02.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A03.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A03.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A03.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A03.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A03.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A03.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A04.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A04.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A04.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A04.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A04.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A04.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A05.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A05.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A05.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A05.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A05.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A05.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A06.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A06.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A06.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A06.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A06.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A06.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B01.score}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B01.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B01.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B01.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B01.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B01.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B02.score}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B02.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B02.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B02.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B02.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B02.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B03.score}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B03.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B03.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B03.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B03.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B03.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B04.score}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B04.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B04.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B04.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B04.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B04.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B05.score}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B05.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B05.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B05.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B05.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B05.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B06.score}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B06.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B06.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B06.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B06.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B06.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A19.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A20.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A20.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A20.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A20.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A20.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A20.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A21.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A21.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A21.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A21.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A21.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A21.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A22.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A22.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A22.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A22.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A22.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A22.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A23.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A23.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A23.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A23.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A23.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A23.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A24.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A24.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A24.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A24.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A24.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A24.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A25.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A25.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A25.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A25.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A25.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A25.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A26.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A26.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A26.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A26.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A26.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A26.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A27.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A27.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A27.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A27.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A27.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A27.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A28.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A28.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A28.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A28.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A28.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A28.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A29.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A29.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A29.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A29.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A29.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A29.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A30.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A30.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A30.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A30.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A30.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A30.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A31.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A31.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A31.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A31.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A31.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A31.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A32.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.DESC}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1838,13 +3047,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color indexed="12"/>
@@ -1852,8 +3054,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1873,12 +3089,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1995,7 +3205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2005,22 +3215,37 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2028,9 +3253,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2041,25 +3263,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,14 +3287,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2095,6 +3302,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2184,7 +3399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2216,9 +3431,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2250,6 +3466,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2425,14 +3642,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N89" sqref="N89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M72" sqref="M72:P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2440,2085 +3657,2692 @@
     <col min="8" max="12" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.35" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:20" ht="28.35" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-    </row>
-    <row r="2" spans="1:18" ht="15">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+    </row>
+    <row r="2" spans="1:20" ht="15">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="T2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="1:18" ht="15">
-      <c r="A3" s="10" t="s">
+      <c r="O3" s="15"/>
+      <c r="P3" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" t="s">
+        <v>158</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15">
+      <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="9" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="T4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75">
+      <c r="A5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="T5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16.5">
+      <c r="A6" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:20" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="R7" s="20"/>
+    </row>
+    <row r="8" spans="1:20" ht="30" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="9" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="10" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" ht="30" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="9" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" ht="30" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" ht="15">
-      <c r="A4" s="10" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" ht="30" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" ht="30" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75">
-      <c r="A5" s="23" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75">
+      <c r="A14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+    </row>
+    <row r="15" spans="1:20" ht="16.5">
+      <c r="A15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.5">
-      <c r="A6" s="25" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" ht="30" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" ht="30" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="B17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" ht="30" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="B18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" ht="30" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="B19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" ht="30" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="B20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" ht="30" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18" t="s">
+      <c r="B21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="1:18" ht="30" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="R6" s="18"/>
-    </row>
-    <row r="7" spans="1:18" ht="30" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="B22" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75">
+      <c r="A23" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+    </row>
+    <row r="24" spans="1:18" ht="16.5">
+      <c r="A24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="1:18" ht="30" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="1:18" ht="30" customHeight="1">
+      <c r="A26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2">
-        <v>2</v>
-      </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="R7" s="21"/>
-    </row>
-    <row r="8" spans="1:18" ht="30" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="B26" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+    </row>
+    <row r="27" spans="1:18" ht="30" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" ht="30" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="B27" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="1:18" ht="30" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="1:18" ht="30" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="B28" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="1:18" ht="30" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="1:18" ht="30" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="B29" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="1:18" ht="30" customHeight="1">
+      <c r="A30" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" ht="30" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="B30" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="1:18" ht="30" customHeight="1">
+      <c r="A31" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" ht="30" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="B31" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75">
+      <c r="A32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+    </row>
+    <row r="33" spans="1:18" ht="16.5">
+      <c r="A33" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="R33" s="19"/>
+    </row>
+    <row r="34" spans="1:18" ht="30" customHeight="1">
+      <c r="A34" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75">
-      <c r="A14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="1:18" ht="16.5">
-      <c r="A15" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="R15" s="18"/>
-    </row>
-    <row r="16" spans="1:18" ht="30" customHeight="1">
-      <c r="A16" s="5" t="s">
+      <c r="B34" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+    </row>
+    <row r="35" spans="1:18" ht="30" customHeight="1">
+      <c r="A35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="1:18" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="B35" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+    </row>
+    <row r="36" spans="1:18" ht="30" customHeight="1">
+      <c r="A36" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="1:18" ht="30" customHeight="1">
-      <c r="A18" s="5" t="s">
+      <c r="B36" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+    </row>
+    <row r="37" spans="1:18" ht="30" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="1:18" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="B37" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+    </row>
+    <row r="38" spans="1:18" ht="30" customHeight="1">
+      <c r="A38" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="1:18" ht="30" customHeight="1">
-      <c r="A20" s="5" t="s">
+      <c r="B38" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+    </row>
+    <row r="39" spans="1:18" ht="30" customHeight="1">
+      <c r="A39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="1:18" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="B39" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75">
+      <c r="A40" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+    </row>
+    <row r="41" spans="1:18" ht="16.5">
+      <c r="A41" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R41" s="8"/>
+    </row>
+    <row r="42" spans="1:18" ht="30" customHeight="1">
+      <c r="A42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="1:18" ht="30" customHeight="1">
-      <c r="A22" s="5" t="s">
+      <c r="B42" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+    </row>
+    <row r="43" spans="1:18" ht="30" customHeight="1">
+      <c r="A43" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.75">
-      <c r="A23" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-    </row>
-    <row r="24" spans="1:18" ht="16.5">
-      <c r="A24" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="R24" s="18"/>
-    </row>
-    <row r="25" spans="1:18" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
+      <c r="B43" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+    </row>
+    <row r="44" spans="1:18" ht="30" customHeight="1">
+      <c r="A44" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="1:18" ht="30" customHeight="1">
-      <c r="A26" s="5" t="s">
+      <c r="B44" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+    </row>
+    <row r="45" spans="1:18" ht="30" customHeight="1">
+      <c r="A45" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-    </row>
-    <row r="27" spans="1:18" ht="30" customHeight="1">
-      <c r="A27" s="5" t="s">
+      <c r="B45" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+    </row>
+    <row r="46" spans="1:18" ht="30" customHeight="1">
+      <c r="A46" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-    </row>
-    <row r="28" spans="1:18" ht="30" customHeight="1">
-      <c r="A28" s="5" t="s">
+      <c r="B46" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+    </row>
+    <row r="47" spans="1:18" ht="30" customHeight="1">
+      <c r="A47" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-    </row>
-    <row r="29" spans="1:18" ht="30" customHeight="1">
-      <c r="A29" s="5" t="s">
+      <c r="B47" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+    </row>
+    <row r="48" spans="1:18" ht="15.75">
+      <c r="A48" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+    </row>
+    <row r="49" spans="1:18" ht="16.5">
+      <c r="A49" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M49" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="R49" s="19"/>
+    </row>
+    <row r="50" spans="1:18" ht="30" customHeight="1">
+      <c r="A50" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-    </row>
-    <row r="30" spans="1:18" ht="30" customHeight="1">
-      <c r="A30" s="5" t="s">
+      <c r="B50" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+    </row>
+    <row r="51" spans="1:18" ht="30" customHeight="1">
+      <c r="A51" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-    </row>
-    <row r="31" spans="1:18" ht="30" customHeight="1">
-      <c r="A31" s="5" t="s">
+      <c r="B51" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+    </row>
+    <row r="52" spans="1:18" ht="30" customHeight="1">
+      <c r="A52" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.75">
-      <c r="A32" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-    </row>
-    <row r="33" spans="1:18" ht="16.5">
-      <c r="A33" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="R33" s="19"/>
-    </row>
-    <row r="34" spans="1:18" ht="30" customHeight="1">
-      <c r="A34" s="5" t="s">
+      <c r="B52" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+    </row>
+    <row r="53" spans="1:18" ht="30" customHeight="1">
+      <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-    </row>
-    <row r="35" spans="1:18" ht="30" customHeight="1">
-      <c r="A35" s="5" t="s">
+      <c r="B53" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+    </row>
+    <row r="54" spans="1:18" ht="30" customHeight="1">
+      <c r="A54" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-    </row>
-    <row r="36" spans="1:18" ht="30" customHeight="1">
-      <c r="A36" s="5" t="s">
+      <c r="B54" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+    </row>
+    <row r="55" spans="1:18" ht="30" customHeight="1">
+      <c r="A55" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-    </row>
-    <row r="37" spans="1:18" ht="30" customHeight="1">
-      <c r="A37" s="5" t="s">
+      <c r="B55" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+    </row>
+    <row r="56" spans="1:18" ht="30" customHeight="1">
+      <c r="A56" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-    </row>
-    <row r="38" spans="1:18" ht="30" customHeight="1">
-      <c r="A38" s="5" t="s">
+      <c r="B56" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+    </row>
+    <row r="57" spans="1:18" ht="30" customHeight="1">
+      <c r="A57" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-    </row>
-    <row r="39" spans="1:18" ht="30" customHeight="1">
-      <c r="A39" s="5" t="s">
+      <c r="B57" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+    </row>
+    <row r="58" spans="1:18" ht="30" customHeight="1">
+      <c r="A58" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.75">
-      <c r="A40" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-    </row>
-    <row r="41" spans="1:18" ht="16.5">
-      <c r="A41" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M41" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="R41" s="18"/>
-    </row>
-    <row r="42" spans="1:18" ht="30" customHeight="1">
-      <c r="A42" s="5" t="s">
+      <c r="B58" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+    </row>
+    <row r="59" spans="1:18" ht="30" customHeight="1">
+      <c r="A59" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-    </row>
-    <row r="43" spans="1:18" ht="30" customHeight="1">
-      <c r="A43" s="5" t="s">
+      <c r="B59" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+    </row>
+    <row r="60" spans="1:18" ht="30" customHeight="1">
+      <c r="A60" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-    </row>
-    <row r="44" spans="1:18" ht="30" customHeight="1">
-      <c r="A44" s="5" t="s">
+      <c r="B60" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+    </row>
+    <row r="61" spans="1:18" ht="30" customHeight="1">
+      <c r="A61" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-    </row>
-    <row r="45" spans="1:18" ht="30" customHeight="1">
-      <c r="A45" s="5" t="s">
+      <c r="B61" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+    </row>
+    <row r="62" spans="1:18" ht="15.75">
+      <c r="A62" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+    </row>
+    <row r="63" spans="1:18" ht="16.5">
+      <c r="A63" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R63" s="8"/>
+    </row>
+    <row r="64" spans="1:18" ht="30" customHeight="1">
+      <c r="A64" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-    </row>
-    <row r="46" spans="1:18" ht="30" customHeight="1">
-      <c r="A46" s="5" t="s">
+      <c r="B64" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+    </row>
+    <row r="65" spans="1:18" ht="30" customHeight="1">
+      <c r="A65" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-    </row>
-    <row r="47" spans="1:18" ht="30" customHeight="1">
-      <c r="A47" s="5" t="s">
+      <c r="B65" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+    </row>
+    <row r="66" spans="1:18" ht="30" customHeight="1">
+      <c r="A66" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-    </row>
-    <row r="48" spans="1:18" ht="15.75">
-      <c r="A48" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-    </row>
-    <row r="49" spans="1:18" ht="16.5">
-      <c r="A49" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M49" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="R49" s="19"/>
-    </row>
-    <row r="50" spans="1:18" ht="30" customHeight="1">
-      <c r="A50" s="5" t="s">
+      <c r="B66" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+    </row>
+    <row r="67" spans="1:18" ht="30" customHeight="1">
+      <c r="A67" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B50" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-    </row>
-    <row r="51" spans="1:18" ht="30" customHeight="1">
-      <c r="A51" s="5" t="s">
+      <c r="B67" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+    </row>
+    <row r="68" spans="1:18" ht="30" customHeight="1">
+      <c r="A68" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-    </row>
-    <row r="52" spans="1:18" ht="30" customHeight="1">
-      <c r="A52" s="5" t="s">
+      <c r="B68" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+    </row>
+    <row r="69" spans="1:18" ht="30" customHeight="1">
+      <c r="A69" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B52" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-    </row>
-    <row r="53" spans="1:18" ht="30" customHeight="1">
-      <c r="A53" s="5" t="s">
+      <c r="B69" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+    </row>
+    <row r="70" spans="1:18" ht="30" customHeight="1">
+      <c r="A70" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-    </row>
-    <row r="54" spans="1:18" ht="30" customHeight="1">
-      <c r="A54" s="5" t="s">
+      <c r="B70" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+    </row>
+    <row r="71" spans="1:18" ht="30" customHeight="1">
+      <c r="A71" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-    </row>
-    <row r="55" spans="1:18" ht="30" customHeight="1">
-      <c r="A55" s="5" t="s">
+      <c r="B71" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+    </row>
+    <row r="72" spans="1:18" ht="30" customHeight="1">
+      <c r="A72" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-    </row>
-    <row r="56" spans="1:18" ht="30" customHeight="1">
-      <c r="A56" s="5" t="s">
+      <c r="B72" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+    </row>
+    <row r="73" spans="1:18" ht="30" customHeight="1">
+      <c r="A73" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-    </row>
-    <row r="57" spans="1:18" ht="30" customHeight="1">
-      <c r="A57" s="5" t="s">
+      <c r="B73" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+    </row>
+    <row r="74" spans="1:18" ht="30" customHeight="1">
+      <c r="A74" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B57" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-    </row>
-    <row r="58" spans="1:18" ht="30" customHeight="1">
-      <c r="A58" s="5" t="s">
+      <c r="B74" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+    </row>
+    <row r="75" spans="1:18" ht="30" customHeight="1">
+      <c r="A75" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-    </row>
-    <row r="59" spans="1:18" ht="30" customHeight="1">
-      <c r="A59" s="5" t="s">
+      <c r="B75" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+    </row>
+    <row r="76" spans="1:18" ht="30" customHeight="1">
+      <c r="A76" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-    </row>
-    <row r="60" spans="1:18" ht="30" customHeight="1">
-      <c r="A60" s="5" t="s">
+      <c r="B76" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+    </row>
+    <row r="77" spans="1:18" ht="30" customHeight="1">
+      <c r="A77" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-    </row>
-    <row r="61" spans="1:18" ht="30" customHeight="1">
-      <c r="A61" s="5" t="s">
+      <c r="B77" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+    </row>
+    <row r="78" spans="1:18" ht="30" customHeight="1">
+      <c r="A78" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-    </row>
-    <row r="62" spans="1:18" ht="15.75">
-      <c r="A62" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-    </row>
-    <row r="63" spans="1:18" ht="16.5">
-      <c r="A63" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M63" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="R63" s="18"/>
-    </row>
-    <row r="64" spans="1:18" ht="30" customHeight="1">
-      <c r="A64" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-    </row>
-    <row r="65" spans="1:18" ht="30" customHeight="1">
-      <c r="A65" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" s="22" t="s">
+      <c r="B78" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-    </row>
-    <row r="66" spans="1:18" ht="30" customHeight="1">
-      <c r="A66" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-    </row>
-    <row r="67" spans="1:18" ht="30" customHeight="1">
-      <c r="A67" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-    </row>
-    <row r="68" spans="1:18" ht="30" customHeight="1">
-      <c r="A68" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-    </row>
-    <row r="69" spans="1:18" ht="30" customHeight="1">
-      <c r="A69" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-    </row>
-    <row r="70" spans="1:18" ht="30" customHeight="1">
-      <c r="A70" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-    </row>
-    <row r="71" spans="1:18" ht="30" customHeight="1">
-      <c r="A71" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-    </row>
-    <row r="72" spans="1:18" ht="30" customHeight="1">
-      <c r="A72" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-    </row>
-    <row r="73" spans="1:18" ht="30" customHeight="1">
-      <c r="A73" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-    </row>
-    <row r="74" spans="1:18" ht="30" customHeight="1">
-      <c r="A74" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11"/>
-    </row>
-    <row r="75" spans="1:18" ht="30" customHeight="1">
-      <c r="A75" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11"/>
-    </row>
-    <row r="76" spans="1:18" ht="30" customHeight="1">
-      <c r="A76" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
-    </row>
-    <row r="77" spans="1:18" ht="30" customHeight="1">
-      <c r="A77" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-    </row>
-    <row r="78" spans="1:18" ht="30" customHeight="1">
-      <c r="A78" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
     </row>
     <row r="79" spans="1:18" ht="15.75">
-      <c r="A79" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
+      <c r="A79" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
     </row>
     <row r="80" spans="1:18" ht="15.75">
       <c r="A80" s="28" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
@@ -4535,54 +6359,54 @@
       <c r="N80" s="29"/>
       <c r="O80" s="29"/>
       <c r="P80" s="29"/>
-      <c r="Q80" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="R80" s="18"/>
+      <c r="Q80" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R80" s="8"/>
     </row>
     <row r="81" spans="1:18" ht="30" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="30"/>
-      <c r="N81" s="30"/>
-      <c r="O81" s="30"/>
-      <c r="P81" s="30"/>
-      <c r="Q81" s="30"/>
-      <c r="R81" s="30"/>
+      <c r="A81" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
     </row>
     <row r="82" spans="1:18" ht="30" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="30"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="30"/>
-      <c r="Q82" s="30"/>
-      <c r="R82" s="30"/>
+      <c r="A82" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="232">
@@ -4625,6 +6449,7 @@
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M26:P26"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B39:G39"/>
@@ -4706,7 +6531,6 @@
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="M24:P24"/>
     <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="Q26:R26"/>
     <mergeCell ref="Q16:R16"/>
@@ -4741,62 +6565,16 @@
     <mergeCell ref="Q36:R36"/>
     <mergeCell ref="Q37:R37"/>
     <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M56:P56"/>
     <mergeCell ref="M57:P57"/>
     <mergeCell ref="Q47:R47"/>
     <mergeCell ref="M49:P49"/>
     <mergeCell ref="M50:P50"/>
     <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M52:P52"/>
     <mergeCell ref="Q50:R50"/>
     <mergeCell ref="Q51:R51"/>
     <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="Q56:R56"/>
     <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="M75:P75"/>
-    <mergeCell ref="M76:P76"/>
-    <mergeCell ref="M67:P67"/>
-    <mergeCell ref="M68:P68"/>
-    <mergeCell ref="M69:P69"/>
-    <mergeCell ref="M70:P70"/>
-    <mergeCell ref="M71:P71"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="M64:P64"/>
-    <mergeCell ref="M65:P65"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="M72:P72"/>
-    <mergeCell ref="M73:P73"/>
-    <mergeCell ref="M74:P74"/>
+    <mergeCell ref="M55:P55"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
@@ -4806,10 +6584,55 @@
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N3:O3"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="M74:P74"/>
+    <mergeCell ref="M75:P75"/>
+    <mergeCell ref="M76:P76"/>
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="M69:P69"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="M71:P71"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="C4:R4"/>
     <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="Q61:R61"/>
     <mergeCell ref="Q75:R75"/>
     <mergeCell ref="Q76:R76"/>
     <mergeCell ref="Q77:R77"/>
@@ -4818,6 +6641,7 @@
     <mergeCell ref="Q70:R70"/>
     <mergeCell ref="Q71:R71"/>
     <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="Q73:R73"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/source/burgerKing/src/main/resources/template/Guest Is King.xlsx
+++ b/source/burgerKing/src/main/resources/template/Guest Is King.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="515">
   <si>
     <t>Guest Is KING</t>
   </si>
@@ -2901,43 +2901,52 @@
     <t>${modules.fuwu_guitai.questions.A31.testDetailInfo.fieldInfos.SCORE}</t>
   </si>
   <si>
+    <t>${modules.fuwu_guitai.questions.A32.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
     <t>${modules.fuwu_guitai.questions.A31.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A32.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A33.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.pg_xinshang.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.pg_guanzhu.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3224,35 +3233,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3266,34 +3284,25 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3648,8 +3657,8 @@
   </sheetPr>
   <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="M72" sqref="M72:P72"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3658,93 +3667,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="28.35" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:20" ht="15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="13" t="s">
+      <c r="O2" s="6"/>
+      <c r="P2" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
       <c r="T2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="13" t="s">
+      <c r="O3" s="6"/>
+      <c r="P3" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
       <c r="S3" t="s">
         <v>158</v>
       </c>
@@ -3753,63 +3762,63 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
       <c r="T4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
       <c r="T5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="16.5">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="4" t="s">
         <v>74</v>
       </c>
@@ -3825,29 +3834,29 @@
       <c r="L6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8" t="s">
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="R6" s="8"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="2" t="s">
         <v>151</v>
       </c>
@@ -3863,29 +3872,29 @@
       <c r="L7" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="20" t="s">
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="R7" s="20"/>
+      <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="2" t="s">
         <v>160</v>
       </c>
@@ -3901,27 +3910,27 @@
       <c r="L8" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
     </row>
     <row r="9" spans="1:20" ht="30" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="2" t="s">
         <v>166</v>
       </c>
@@ -3937,27 +3946,27 @@
       <c r="L9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="2" t="s">
         <v>172</v>
       </c>
@@ -3973,27 +3982,27 @@
       <c r="L10" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
     </row>
     <row r="11" spans="1:20" ht="30" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="2" t="s">
         <v>178</v>
       </c>
@@ -4009,27 +4018,27 @@
       <c r="L11" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
     </row>
     <row r="12" spans="1:20" ht="30" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="2" t="s">
         <v>184</v>
       </c>
@@ -4045,27 +4054,27 @@
       <c r="L12" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
     </row>
     <row r="13" spans="1:20" ht="30" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="2" t="s">
         <v>190</v>
       </c>
@@ -4081,43 +4090,43 @@
       <c r="L13" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
     </row>
     <row r="14" spans="1:20" ht="15.75">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:20" ht="16.5">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="4" t="s">
         <v>74</v>
       </c>
@@ -4133,29 +4142,29 @@
       <c r="L15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8" t="s">
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="R15" s="8"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:20" ht="30" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="2" t="s">
         <v>198</v>
       </c>
@@ -4171,27 +4180,27 @@
       <c r="L16" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
     </row>
     <row r="17" spans="1:18" ht="30" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="2" t="s">
         <v>209</v>
       </c>
@@ -4207,27 +4216,27 @@
       <c r="L17" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
     </row>
     <row r="18" spans="1:18" ht="30" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="2" t="s">
         <v>210</v>
       </c>
@@ -4243,27 +4252,27 @@
       <c r="L18" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
     </row>
     <row r="19" spans="1:18" ht="30" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="2" t="s">
         <v>216</v>
       </c>
@@ -4279,27 +4288,27 @@
       <c r="L19" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
     </row>
     <row r="20" spans="1:18" ht="30" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="2" t="s">
         <v>222</v>
       </c>
@@ -4315,27 +4324,27 @@
       <c r="L20" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
     </row>
     <row r="21" spans="1:18" ht="30" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="2" t="s">
         <v>228</v>
       </c>
@@ -4351,27 +4360,27 @@
       <c r="L21" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
     </row>
     <row r="22" spans="1:18" ht="30" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="2" t="s">
         <v>234</v>
       </c>
@@ -4387,43 +4396,43 @@
       <c r="L22" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
     </row>
     <row r="23" spans="1:18" ht="15.75">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:18" ht="16.5">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="4" t="s">
         <v>74</v>
       </c>
@@ -4439,29 +4448,29 @@
       <c r="L24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8" t="s">
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="R24" s="8"/>
+      <c r="R24" s="11"/>
     </row>
     <row r="25" spans="1:18" ht="30" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="2" t="s">
         <v>237</v>
       </c>
@@ -4477,27 +4486,27 @@
       <c r="L25" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
     </row>
     <row r="26" spans="1:18" ht="30" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="2" t="s">
         <v>243</v>
       </c>
@@ -4513,27 +4522,27 @@
       <c r="L26" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
     </row>
     <row r="27" spans="1:18" ht="30" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="2" t="s">
         <v>249</v>
       </c>
@@ -4549,27 +4558,27 @@
       <c r="L27" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
     </row>
     <row r="28" spans="1:18" ht="30" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="2" t="s">
         <v>255</v>
       </c>
@@ -4585,27 +4594,27 @@
       <c r="L28" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
     </row>
     <row r="29" spans="1:18" ht="30" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="2" t="s">
         <v>261</v>
       </c>
@@ -4621,27 +4630,27 @@
       <c r="L29" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
     </row>
     <row r="30" spans="1:18" ht="30" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="2" t="s">
         <v>267</v>
       </c>
@@ -4657,27 +4666,27 @@
       <c r="L30" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
     </row>
     <row r="31" spans="1:18" ht="30" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="2" t="s">
         <v>273</v>
       </c>
@@ -4693,43 +4702,43 @@
       <c r="L31" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
     </row>
     <row r="32" spans="1:18" ht="15.75">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
     </row>
     <row r="33" spans="1:18" ht="16.5">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
       <c r="H33" s="1" t="s">
         <v>74</v>
       </c>
@@ -4745,29 +4754,29 @@
       <c r="L33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M33" s="16" t="s">
+      <c r="M33" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="19" t="s">
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="R33" s="19"/>
+      <c r="R33" s="22"/>
     </row>
     <row r="34" spans="1:18" ht="30" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="2" t="s">
         <v>392</v>
       </c>
@@ -4783,27 +4792,27 @@
       <c r="L34" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M34" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
     </row>
     <row r="35" spans="1:18" ht="30" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="2" t="s">
         <v>398</v>
       </c>
@@ -4819,27 +4828,27 @@
       <c r="L35" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="M35" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
     </row>
     <row r="36" spans="1:18" ht="30" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
       <c r="H36" s="2" t="s">
         <v>404</v>
       </c>
@@ -4855,27 +4864,27 @@
       <c r="L36" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="M36" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
     </row>
     <row r="37" spans="1:18" ht="30" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
       <c r="H37" s="2" t="s">
         <v>410</v>
       </c>
@@ -4891,27 +4900,27 @@
       <c r="L37" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="M37" s="7" t="s">
+      <c r="M37" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
     </row>
     <row r="38" spans="1:18" ht="30" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="2" t="s">
         <v>416</v>
       </c>
@@ -4927,27 +4936,27 @@
       <c r="L38" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="M38" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
     </row>
     <row r="39" spans="1:18" ht="30" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="2" t="s">
         <v>422</v>
       </c>
@@ -4963,43 +4972,43 @@
       <c r="L39" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="M39" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
     </row>
     <row r="40" spans="1:18" ht="15.75">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
     </row>
     <row r="41" spans="1:18" ht="16.5">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
       <c r="H41" s="4" t="s">
         <v>74</v>
       </c>
@@ -5015,29 +5024,29 @@
       <c r="L41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M41" s="8" t="s">
+      <c r="M41" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8" t="s">
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="R41" s="8"/>
+      <c r="R41" s="11"/>
     </row>
     <row r="42" spans="1:18" ht="30" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="2" t="s">
         <v>356</v>
       </c>
@@ -5053,27 +5062,27 @@
       <c r="L42" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="M42" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
     </row>
     <row r="43" spans="1:18" ht="30" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
       <c r="H43" s="2" t="s">
         <v>362</v>
       </c>
@@ -5089,27 +5098,27 @@
       <c r="L43" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="M43" s="7" t="s">
+      <c r="M43" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
     </row>
     <row r="44" spans="1:18" ht="30" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
       <c r="H44" s="2" t="s">
         <v>368</v>
       </c>
@@ -5125,27 +5134,27 @@
       <c r="L44" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="M44" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
     </row>
     <row r="45" spans="1:18" ht="30" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
       <c r="H45" s="2" t="s">
         <v>374</v>
       </c>
@@ -5161,27 +5170,27 @@
       <c r="L45" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="M45" s="7" t="s">
+      <c r="M45" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
     </row>
     <row r="46" spans="1:18" ht="30" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
       <c r="H46" s="2" t="s">
         <v>380</v>
       </c>
@@ -5197,27 +5206,27 @@
       <c r="L46" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="M46" s="7" t="s">
+      <c r="M46" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
     </row>
     <row r="47" spans="1:18" ht="30" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
       <c r="H47" s="2" t="s">
         <v>386</v>
       </c>
@@ -5233,43 +5242,43 @@
       <c r="L47" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="M47" s="7" t="s">
+      <c r="M47" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
     </row>
     <row r="48" spans="1:18" ht="15.75">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
     </row>
     <row r="49" spans="1:18" ht="16.5">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
       <c r="H49" s="1" t="s">
         <v>74</v>
       </c>
@@ -5285,29 +5294,29 @@
       <c r="L49" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M49" s="16" t="s">
+      <c r="M49" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="19" t="s">
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="R49" s="19"/>
+      <c r="R49" s="22"/>
     </row>
     <row r="50" spans="1:18" ht="30" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
       <c r="H50" s="2" t="s">
         <v>338</v>
       </c>
@@ -5323,27 +5332,27 @@
       <c r="L50" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="M50" s="9" t="s">
+      <c r="M50" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
     </row>
     <row r="51" spans="1:18" ht="30" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
       <c r="H51" s="2" t="s">
         <v>344</v>
       </c>
@@ -5359,27 +5368,27 @@
       <c r="L51" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="M51" s="9" t="s">
+      <c r="M51" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
     </row>
     <row r="52" spans="1:18" ht="30" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
       <c r="H52" s="2" t="s">
         <v>350</v>
       </c>
@@ -5395,27 +5404,27 @@
       <c r="L52" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M52" s="9" t="s">
+      <c r="M52" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
     </row>
     <row r="53" spans="1:18" ht="30" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
       <c r="H53" s="2" t="s">
         <v>279</v>
       </c>
@@ -5431,27 +5440,27 @@
       <c r="L53" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="M53" s="9" t="s">
+      <c r="M53" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
     </row>
     <row r="54" spans="1:18" ht="30" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
       <c r="H54" s="2" t="s">
         <v>285</v>
       </c>
@@ -5467,27 +5476,27 @@
       <c r="L54" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="M54" s="9" t="s">
+      <c r="M54" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
     </row>
     <row r="55" spans="1:18" ht="30" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
       <c r="H55" s="2" t="s">
         <v>291</v>
       </c>
@@ -5503,27 +5512,27 @@
       <c r="L55" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="M55" s="7" t="s">
+      <c r="M55" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
     </row>
     <row r="56" spans="1:18" ht="30" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
       <c r="H56" s="2" t="s">
         <v>297</v>
       </c>
@@ -5539,27 +5548,27 @@
       <c r="L56" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="M56" s="7" t="s">
+      <c r="M56" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
     </row>
     <row r="57" spans="1:18" ht="30" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
       <c r="H57" s="2" t="s">
         <v>303</v>
       </c>
@@ -5575,27 +5584,27 @@
       <c r="L57" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="M57" s="7" t="s">
+      <c r="M57" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
     </row>
     <row r="58" spans="1:18" ht="30" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
       <c r="H58" s="2" t="s">
         <v>309</v>
       </c>
@@ -5611,27 +5620,27 @@
       <c r="L58" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="M58" s="7" t="s">
+      <c r="M58" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
     </row>
     <row r="59" spans="1:18" ht="30" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
       <c r="H59" s="2" t="s">
         <v>315</v>
       </c>
@@ -5647,27 +5656,27 @@
       <c r="L59" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="M59" s="7" t="s">
+      <c r="M59" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
     </row>
     <row r="60" spans="1:18" ht="30" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
       <c r="H60" s="2" t="s">
         <v>321</v>
       </c>
@@ -5683,27 +5692,27 @@
       <c r="L60" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="M60" s="7" t="s">
+      <c r="M60" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
     </row>
     <row r="61" spans="1:18" ht="30" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
       <c r="H61" s="2" t="s">
         <v>327</v>
       </c>
@@ -5719,43 +5728,43 @@
       <c r="L61" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="M61" s="7" t="s">
+      <c r="M61" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
     </row>
     <row r="62" spans="1:18" ht="15.75">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
     </row>
     <row r="63" spans="1:18" ht="16.5">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
       <c r="H63" s="4" t="s">
         <v>74</v>
       </c>
@@ -5771,29 +5780,29 @@
       <c r="L63" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M63" s="8" t="s">
+      <c r="M63" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8" t="s">
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="R63" s="8"/>
+      <c r="R63" s="11"/>
     </row>
     <row r="64" spans="1:18" ht="30" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
       <c r="H64" s="2" t="s">
         <v>333</v>
       </c>
@@ -5809,27 +5818,27 @@
       <c r="L64" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="M64" s="7" t="s">
+      <c r="M64" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
     </row>
     <row r="65" spans="1:18" ht="30" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
       <c r="H65" s="2" t="s">
         <v>429</v>
       </c>
@@ -5845,27 +5854,27 @@
       <c r="L65" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="M65" s="7" t="s">
+      <c r="M65" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
     </row>
     <row r="66" spans="1:18" ht="30" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
       <c r="H66" s="2" t="s">
         <v>435</v>
       </c>
@@ -5881,27 +5890,27 @@
       <c r="L66" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="M66" s="7" t="s">
+      <c r="M66" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
     </row>
     <row r="67" spans="1:18" ht="30" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
       <c r="H67" s="2" t="s">
         <v>441</v>
       </c>
@@ -5917,27 +5926,27 @@
       <c r="L67" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="M67" s="7" t="s">
+      <c r="M67" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
     </row>
     <row r="68" spans="1:18" ht="30" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
       <c r="H68" s="2" t="s">
         <v>447</v>
       </c>
@@ -5953,27 +5962,27 @@
       <c r="L68" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="M68" s="7" t="s">
+      <c r="M68" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
     </row>
     <row r="69" spans="1:18" ht="30" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
       <c r="H69" s="2" t="s">
         <v>453</v>
       </c>
@@ -5989,27 +5998,27 @@
       <c r="L69" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="M69" s="7" t="s">
+      <c r="M69" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
     </row>
     <row r="70" spans="1:18" ht="30" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
       <c r="H70" s="2" t="s">
         <v>459</v>
       </c>
@@ -6025,27 +6034,27 @@
       <c r="L70" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="M70" s="7" t="s">
+      <c r="M70" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
     </row>
     <row r="71" spans="1:18" ht="30" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
       <c r="H71" s="2" t="s">
         <v>465</v>
       </c>
@@ -6061,27 +6070,27 @@
       <c r="L71" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="M71" s="7" t="s">
+      <c r="M71" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
     </row>
     <row r="72" spans="1:18" ht="30" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
       <c r="H72" s="2" t="s">
         <v>471</v>
       </c>
@@ -6097,27 +6106,27 @@
       <c r="L72" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="M72" s="7" t="s">
+      <c r="M72" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
     </row>
     <row r="73" spans="1:18" ht="30" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
       <c r="H73" s="2" t="s">
         <v>477</v>
       </c>
@@ -6133,27 +6142,27 @@
       <c r="L73" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="M73" s="7" t="s">
+      <c r="M73" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
     </row>
     <row r="74" spans="1:18" ht="30" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
       <c r="H74" s="2" t="s">
         <v>483</v>
       </c>
@@ -6169,27 +6178,27 @@
       <c r="L74" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="M74" s="7" t="s">
+      <c r="M74" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
     </row>
     <row r="75" spans="1:18" ht="30" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
       <c r="H75" s="2" t="s">
         <v>489</v>
       </c>
@@ -6205,27 +6214,27 @@
       <c r="L75" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="M75" s="7" t="s">
+      <c r="M75" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
     </row>
     <row r="76" spans="1:18" ht="30" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
       <c r="H76" s="2" t="s">
         <v>495</v>
       </c>
@@ -6241,175 +6250,387 @@
       <c r="L76" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="M76" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
+      <c r="M76" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
     </row>
     <row r="77" spans="1:18" ht="30" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
       <c r="H77" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="I77" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="L77" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="M77" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="M77" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
     </row>
     <row r="78" spans="1:18" ht="30" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
       <c r="H78" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="K78" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="L78" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="M78" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="M78" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="16"/>
     </row>
     <row r="79" spans="1:18" ht="15.75">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="23"/>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
     </row>
     <row r="80" spans="1:18" ht="15.75">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="29"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="8" t="s">
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="R80" s="8"/>
+      <c r="R80" s="11"/>
     </row>
     <row r="81" spans="1:18" ht="30" customHeight="1">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="27"/>
-      <c r="N81" s="27"/>
-      <c r="O81" s="27"/>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="27"/>
-      <c r="R81" s="27"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
     </row>
     <row r="82" spans="1:18" ht="30" customHeight="1">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="27"/>
-      <c r="O82" s="27"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="27"/>
-      <c r="R82" s="27"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="232">
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="M74:P74"/>
+    <mergeCell ref="M75:P75"/>
+    <mergeCell ref="M76:P76"/>
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="M69:P69"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="A79:N79"/>
+    <mergeCell ref="M77:P77"/>
+    <mergeCell ref="M78:P78"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="A62:N62"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="A32:N32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M26:P26"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="D81:P81"/>
@@ -6434,214 +6655,6 @@
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="A23:N23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="A40:N40"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="A32:N32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="A79:N79"/>
-    <mergeCell ref="M77:P77"/>
-    <mergeCell ref="M78:P78"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="A62:N62"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="M72:P72"/>
-    <mergeCell ref="M73:P73"/>
-    <mergeCell ref="M74:P74"/>
-    <mergeCell ref="M75:P75"/>
-    <mergeCell ref="M76:P76"/>
-    <mergeCell ref="M67:P67"/>
-    <mergeCell ref="M68:P68"/>
-    <mergeCell ref="M69:P69"/>
-    <mergeCell ref="M70:P70"/>
-    <mergeCell ref="M71:P71"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="M64:P64"/>
-    <mergeCell ref="M65:P65"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="Q73:R73"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/source/burgerKing/src/main/resources/template/Guest Is King.xlsx
+++ b/source/burgerKing/src/main/resources/template/Guest Is King.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="582">
   <si>
     <t>Guest Is KING</t>
   </si>
@@ -265,10 +265,6 @@
   </si>
   <si>
     <t>描述问题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片描述</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1766,11 +1762,6 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${modules.qingjie_waibu.questions.C01.testDetailInfo.evidence}
-</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2483,469 +2474,746 @@
     <t>${modules.fuwu_tuandui.questions.A01.testDetailInfo.fieldInfos.SCORE}</t>
   </si>
   <si>
+    <t>${modules.fuwu_tuandui.questions.A02.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A02.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A02.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A02.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A02.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A02.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A03.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A03.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A03.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A03.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A03.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A03.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A04.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A04.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A04.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A04.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A04.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A04.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A05.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A05.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A05.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A05.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A05.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A05.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A06.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A06.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A06.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A06.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A06.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_tuandui.questions.A06.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B01.score}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B01.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B01.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B01.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B01.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B02.score}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B02.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B02.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B02.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B02.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B02.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B03.score}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B03.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B03.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B03.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B03.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B03.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B04.score}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B04.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B04.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B04.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B04.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B04.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B05.score}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B05.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B05.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B05.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B05.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B05.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B06.score}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B06.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B06.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B06.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B06.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B06.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A19.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A20.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A20.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A20.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A20.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A20.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A20.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A21.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A21.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A21.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A21.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A21.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A21.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A22.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A22.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A22.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A22.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A22.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A22.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A23.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A23.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A23.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A23.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A23.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A23.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A24.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A24.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A24.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A24.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A24.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A24.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A25.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A25.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A25.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A25.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A25.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A25.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A26.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A26.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A26.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A26.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A26.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A26.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A27.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A27.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A27.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A27.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A27.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A27.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A28.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A28.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A28.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A28.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A28.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A28.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A29.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A29.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A29.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A29.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A29.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A29.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A30.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A30.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A30.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A30.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A30.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A30.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A31.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A31.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A31.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A31.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A31.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A32.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.score}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.NA}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.Y}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.N}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.SCORE}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.DESC}</t>
+  </si>
+  <si>
+    <t>${modules.fuwu_guitai.questions.A31.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片描述</t>
+  </si>
+  <si>
+    <t>图片描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_waibu.questions.C01.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_waibu.questions.C02.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_waibu.questions.C03.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_waibu.questions.C04.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_waibu.questions.C05.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_waibu.questions.C06.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_waibu.questions.C07.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_datang.questions.C08.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_datang.questions.C14.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_datang.questions.C13.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_datang.questions.C12.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_datang.questions.C11.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_datang.questions.C10.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_datang.questions.C09.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_xishoujian.questions.C15.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_xishoujian.questions.C16.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_xishoujian.questions.C17.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_xishoujian.questions.C18.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_xishoujian.questions.C19.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_xishoujian.questions.C20.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.qingjie_xishoujian.questions.C21.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.pinzhi.questions.B01.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.pinzhi.questions.B01.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.pinzhi.questions.B02.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.pinzhi.questions.B03.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.pinzhi.questions.B04.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.pinzhi.questions.B05.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.pinzhi.questions.B06.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>${modules.fuwu_tuandui.questions.A01.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A02.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A02.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A02.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A02.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A02.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A02.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A03.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A03.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A03.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A03.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A03.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A03.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A04.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A04.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A04.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A04.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A04.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A04.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A05.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A05.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A05.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A05.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A05.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A05.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A06.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A06.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A06.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A06.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A06.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_tuandui.questions.A06.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B01.score}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B01.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B01.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B01.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B01.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B01.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B02.score}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B02.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B02.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B02.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B02.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B02.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B03.score}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B03.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B03.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B03.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B03.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B03.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B04.score}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B04.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B04.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B04.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B04.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B04.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B05.score}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B05.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B05.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B05.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B05.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B05.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B06.score}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B06.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B06.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B06.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B06.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.pinzhi.questions.B06.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A19.testDetailInfo.fieldInfos.DESC}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A20.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A20.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A20.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A20.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A20.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A20.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A21.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A21.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A21.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A21.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A21.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A21.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A22.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A22.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A22.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A22.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A22.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A22.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A23.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A23.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A23.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A23.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A23.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A23.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A24.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A24.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A24.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A24.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A24.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A24.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A25.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A25.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A25.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A25.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A25.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A25.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A26.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A26.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A26.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A26.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A26.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A26.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A27.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A27.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A27.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A27.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A27.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A27.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A28.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A28.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A28.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A28.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A28.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A28.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A29.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A29.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A29.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A29.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A29.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A29.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A30.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A30.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A30.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A30.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A30.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A30.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A31.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A31.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A31.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A31.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A31.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A32.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A32.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A33.score}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.NA}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.Y}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.N}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.SCORE}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A33.testDetailInfo.fieldInfos.DESC}</t>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.A31.testDetailInfo.fieldInfos.DESC}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.pg_xinshang.testDetailInfo.fieldInfos.DESC}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${modules.fuwu_guitai.questions.pg_guanzhu.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_tuandui.questions.A01.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_tuandui.questions.A02.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_tuandui.questions.A03.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_tuandui.questions.A04.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_tuandui.questions.A05.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_tuandui.questions.A06.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_datang.questions.A07.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_datang.questions.A08.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_datang.questions.A09.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_datang.questions.A10.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_datang.questions.A11.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_datang.questions.A12.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_datang.questions.A13.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_datang.questions.A14.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_datang.questions.A15.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_datang.questions.A16.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_datang.questions.A17.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_datang.questions.A18.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_guitai.questions.A19.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_guitai.questions.A20.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_guitai.questions.A21.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_guitai.questions.A22.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_guitai.questions.A23.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_guitai.questions.A24.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_guitai.questions.A25.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_guitai.questions.A26.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_guitai.questions.A27.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_guitai.questions.A28.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_guitai.questions.A29.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_guitai.questions.A30.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_guitai.questions.A31.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_guitai.questions.A32.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.fuwu_guitai.questions.A33.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.pingguzongjie.questions.pg_xinshang.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.pingguzongjie.questions.pg_guanzhu.testDetailInfo.fieldInfos.DESC}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.pingguzongjie.questions.pg_xinshang.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.pingguzongjie.questions.pg_guanzhu.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3056,14 +3324,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -3075,6 +3335,15 @@
       <color indexed="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3116,19 +3385,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -3208,50 +3464,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3260,50 +3560,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3320,49 +3614,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>24617</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>626700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>340950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10067925" y="24617"/>
-          <a:ext cx="264750" cy="316333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3655,170 +3906,175 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T82"/>
+  <dimension ref="A1:U82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="8" max="12" width="3.875" customWidth="1"/>
+    <col min="17" max="19" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.35" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:21" ht="28.35" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:20" ht="15">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+    </row>
+    <row r="2" spans="1:21" ht="15">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="U2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15">
+      <c r="A3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="T2" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="19"/>
+      <c r="P3" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="15">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="28" t="s">
+      <c r="U3" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15">
+      <c r="A4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" t="s">
-        <v>158</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="T4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75">
-      <c r="A5" s="13" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="U4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75">
+      <c r="A5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="T5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="16.5">
-      <c r="A6" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="U5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="16.5">
+      <c r="A6" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="4" t="s">
         <v>74</v>
       </c>
@@ -3834,299 +4090,320 @@
       <c r="L6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11" t="s">
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:20" ht="30" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="38" t="s">
+        <v>516</v>
+      </c>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+    </row>
+    <row r="8" spans="1:21" ht="30" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="24" t="s">
+      <c r="B8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="R7" s="24"/>
-    </row>
-    <row r="8" spans="1:20" ht="30" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="J8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+    </row>
+    <row r="9" spans="1:21" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="B9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="I9" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-    </row>
-    <row r="9" spans="1:20" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="J9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+    </row>
+    <row r="10" spans="1:21" ht="30" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="B10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="I10" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-    </row>
-    <row r="10" spans="1:20" ht="30" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="J10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+    </row>
+    <row r="11" spans="1:21" ht="30" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="B11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="I11" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-    </row>
-    <row r="11" spans="1:20" ht="30" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="J11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="38" t="s">
+        <v>520</v>
+      </c>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="B12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="I12" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-    </row>
-    <row r="12" spans="1:20" ht="30" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="J12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="38" t="s">
+        <v>521</v>
+      </c>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+    </row>
+    <row r="13" spans="1:21" ht="30" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="B13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="I13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-    </row>
-    <row r="13" spans="1:20" ht="30" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="M13" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.75">
-      <c r="A14" s="13" t="s">
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="38" t="s">
+        <v>522</v>
+      </c>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.75">
+      <c r="A14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:20" ht="16.5">
-      <c r="A15" s="15" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="S14" s="35"/>
+    </row>
+    <row r="15" spans="1:21" ht="16.5">
+      <c r="A15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="4" t="s">
         <v>74</v>
       </c>
@@ -4142,297 +4419,320 @@
       <c r="L15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" ht="30" customHeight="1">
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" ht="30" customHeight="1">
       <c r="A16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+    </row>
+    <row r="17" spans="1:19" ht="30" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="2" t="s">
+      <c r="B17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="M16" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-    </row>
-    <row r="17" spans="1:18" ht="30" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+    </row>
+    <row r="18" spans="1:19" ht="30" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="2" t="s">
+      <c r="B18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-    </row>
-    <row r="18" spans="1:18" ht="30" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="J18" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+    </row>
+    <row r="19" spans="1:19" ht="30" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="L18" s="2" t="s">
+      <c r="B19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="I19" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-    </row>
-    <row r="19" spans="1:18" ht="30" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="J19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+    </row>
+    <row r="20" spans="1:19" ht="30" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="2" t="s">
+      <c r="B20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="I20" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-    </row>
-    <row r="20" spans="1:18" ht="30" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="J20" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+    </row>
+    <row r="21" spans="1:19" ht="30" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L20" s="2" t="s">
+      <c r="B21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="M20" s="17" t="s">
+      <c r="I21" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-    </row>
-    <row r="21" spans="1:18" ht="30" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="J21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+    </row>
+    <row r="22" spans="1:19" ht="30" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="B22" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="M22" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-    </row>
-    <row r="22" spans="1:18" ht="30" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.75">
-      <c r="A23" s="13" t="s">
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75">
+      <c r="A23" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-    </row>
-    <row r="24" spans="1:18" ht="16.5">
-      <c r="A24" s="15" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="S23" s="35"/>
+    </row>
+    <row r="24" spans="1:19" ht="16.5">
+      <c r="A24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="4" t="s">
         <v>74</v>
       </c>
@@ -4448,297 +4748,320 @@
       <c r="L24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="M24" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R24" s="11"/>
-    </row>
-    <row r="25" spans="1:18" ht="30" customHeight="1">
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="S24" s="7"/>
+    </row>
+    <row r="25" spans="1:19" ht="30" customHeight="1">
       <c r="A25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+    </row>
+    <row r="26" spans="1:19" ht="30" customHeight="1">
+      <c r="A26" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="L25" s="2" t="s">
+      <c r="B26" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="M25" s="17" t="s">
+      <c r="I26" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-    </row>
-    <row r="26" spans="1:18" ht="30" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="J26" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+    </row>
+    <row r="27" spans="1:19" ht="30" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="L26" s="2" t="s">
+      <c r="B27" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="I27" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-    </row>
-    <row r="27" spans="1:18" ht="30" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="J27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="38" t="s">
+        <v>532</v>
+      </c>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+    </row>
+    <row r="28" spans="1:19" ht="30" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="L27" s="2" t="s">
+      <c r="B28" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="M27" s="17" t="s">
+      <c r="I28" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-    </row>
-    <row r="28" spans="1:18" ht="30" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="J28" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="38" t="s">
+        <v>533</v>
+      </c>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+    </row>
+    <row r="29" spans="1:19" ht="30" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="L28" s="2" t="s">
+      <c r="B29" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="M28" s="17" t="s">
+      <c r="I29" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-    </row>
-    <row r="29" spans="1:18" ht="30" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="J29" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="38" t="s">
+        <v>534</v>
+      </c>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+    </row>
+    <row r="30" spans="1:19" ht="30" customHeight="1">
+      <c r="A30" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="L29" s="2" t="s">
+      <c r="B30" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="M29" s="17" t="s">
+      <c r="I30" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-    </row>
-    <row r="30" spans="1:18" ht="30" customHeight="1">
-      <c r="A30" s="3" t="s">
+      <c r="J30" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+    </row>
+    <row r="31" spans="1:19" ht="30" customHeight="1">
+      <c r="A31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="L30" s="2" t="s">
+      <c r="B31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="M30" s="17" t="s">
+      <c r="I31" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-    </row>
-    <row r="31" spans="1:18" ht="30" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="M31" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.75">
-      <c r="A32" s="13" t="s">
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75">
+      <c r="A32" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-    </row>
-    <row r="33" spans="1:18" ht="16.5">
-      <c r="A33" s="18" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" ht="16.5">
+      <c r="A33" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="1" t="s">
         <v>74</v>
       </c>
@@ -4754,261 +5077,281 @@
       <c r="L33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="M33" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="R33" s="22"/>
-    </row>
-    <row r="34" spans="1:18" ht="30" customHeight="1">
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="S33" s="36"/>
+    </row>
+    <row r="34" spans="1:19" ht="30" customHeight="1">
       <c r="A34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+    </row>
+    <row r="35" spans="1:19" ht="30" customHeight="1">
+      <c r="A35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="J34" s="2" t="s">
+      <c r="B35" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="M34" s="17" t="s">
+      <c r="K35" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-    </row>
-    <row r="35" spans="1:18" ht="30" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="L35" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+    </row>
+    <row r="36" spans="1:19" ht="30" customHeight="1">
+      <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="J35" s="2" t="s">
+      <c r="B36" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="M35" s="17" t="s">
+      <c r="K36" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-    </row>
-    <row r="36" spans="1:18" ht="30" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="L36" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+    </row>
+    <row r="37" spans="1:19" ht="30" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="J36" s="2" t="s">
+      <c r="B37" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="M36" s="17" t="s">
+      <c r="K37" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-    </row>
-    <row r="37" spans="1:18" ht="30" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="L37" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+    </row>
+    <row r="38" spans="1:19" ht="30" customHeight="1">
+      <c r="A38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="J37" s="2" t="s">
+      <c r="B38" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="M37" s="17" t="s">
+      <c r="K38" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-    </row>
-    <row r="38" spans="1:18" ht="30" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="L38" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+    </row>
+    <row r="39" spans="1:19" ht="30" customHeight="1">
+      <c r="A39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="J38" s="2" t="s">
+      <c r="B39" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="M38" s="17" t="s">
+      <c r="K39" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-    </row>
-    <row r="39" spans="1:18" ht="30" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="M39" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="M39" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.75">
-      <c r="A40" s="13" t="s">
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+    </row>
+    <row r="40" spans="1:19" ht="15.75">
+      <c r="A40" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-    </row>
-    <row r="41" spans="1:18" ht="16.5">
-      <c r="A41" s="15" t="s">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="S40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" ht="16.5">
+      <c r="A41" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="4" t="s">
         <v>74</v>
       </c>
@@ -5024,261 +5367,281 @@
       <c r="L41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M41" s="11" t="s">
+      <c r="M41" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R41" s="11"/>
-    </row>
-    <row r="42" spans="1:18" ht="30" customHeight="1">
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="S41" s="7"/>
+    </row>
+    <row r="42" spans="1:19" ht="30" customHeight="1">
       <c r="A42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+    </row>
+    <row r="43" spans="1:19" ht="30" customHeight="1">
+      <c r="A43" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="B43" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="M42" s="17" t="s">
+      <c r="J43" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-    </row>
-    <row r="43" spans="1:18" ht="30" customHeight="1">
-      <c r="A43" s="3" t="s">
+      <c r="K43" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+    </row>
+    <row r="44" spans="1:19" ht="30" customHeight="1">
+      <c r="A44" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="B44" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="M43" s="17" t="s">
+      <c r="J44" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-    </row>
-    <row r="44" spans="1:18" ht="30" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="K44" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+    </row>
+    <row r="45" spans="1:19" ht="30" customHeight="1">
+      <c r="A45" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="B45" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="M44" s="17" t="s">
+      <c r="J45" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-    </row>
-    <row r="45" spans="1:18" ht="30" customHeight="1">
-      <c r="A45" s="3" t="s">
+      <c r="K45" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+    </row>
+    <row r="46" spans="1:19" ht="30" customHeight="1">
+      <c r="A46" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="B46" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="M45" s="17" t="s">
+      <c r="J46" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-    </row>
-    <row r="46" spans="1:18" ht="30" customHeight="1">
-      <c r="A46" s="3" t="s">
+      <c r="K46" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+    </row>
+    <row r="47" spans="1:19" ht="30" customHeight="1">
+      <c r="A47" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="B47" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="M46" s="17" t="s">
+      <c r="J47" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-    </row>
-    <row r="47" spans="1:18" ht="30" customHeight="1">
-      <c r="A47" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="M47" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="K47" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="M47" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-    </row>
-    <row r="48" spans="1:18" ht="15.75">
-      <c r="A48" s="13" t="s">
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+    </row>
+    <row r="48" spans="1:19" ht="15.75">
+      <c r="A48" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-    </row>
-    <row r="49" spans="1:18" ht="16.5">
-      <c r="A49" s="18" t="s">
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="S48" s="35"/>
+    </row>
+    <row r="49" spans="1:19" ht="16.5">
+      <c r="A49" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
       <c r="H49" s="1" t="s">
         <v>74</v>
       </c>
@@ -5294,477 +5657,515 @@
       <c r="L49" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M49" s="19" t="s">
+      <c r="M49" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="R49" s="22"/>
-    </row>
-    <row r="50" spans="1:18" ht="30" customHeight="1">
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="S49" s="36"/>
+    </row>
+    <row r="50" spans="1:19" ht="30" customHeight="1">
       <c r="A50" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+    </row>
+    <row r="51" spans="1:19" ht="30" customHeight="1">
+      <c r="A51" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="L50" s="2" t="s">
+      <c r="B51" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="M50" s="25" t="s">
+      <c r="I51" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-    </row>
-    <row r="51" spans="1:18" ht="30" customHeight="1">
-      <c r="A51" s="3" t="s">
+      <c r="J51" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+    </row>
+    <row r="52" spans="1:19" ht="30" customHeight="1">
+      <c r="A52" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="L51" s="2" t="s">
+      <c r="B52" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="M51" s="25" t="s">
+      <c r="I52" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-    </row>
-    <row r="52" spans="1:18" ht="30" customHeight="1">
-      <c r="A52" s="3" t="s">
+      <c r="J52" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+    </row>
+    <row r="53" spans="1:19" ht="30" customHeight="1">
+      <c r="A53" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M52" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-    </row>
-    <row r="53" spans="1:18" ht="30" customHeight="1">
-      <c r="A53" s="3" t="s">
+      <c r="B53" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="38" t="s">
+        <v>554</v>
+      </c>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38"/>
+    </row>
+    <row r="54" spans="1:19" ht="30" customHeight="1">
+      <c r="A54" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L53" s="2" t="s">
+      <c r="B54" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="M53" s="25" t="s">
+      <c r="I54" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-    </row>
-    <row r="54" spans="1:18" ht="30" customHeight="1">
-      <c r="A54" s="3" t="s">
+      <c r="J54" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="38" t="s">
+        <v>555</v>
+      </c>
+      <c r="R54" s="38"/>
+      <c r="S54" s="38"/>
+    </row>
+    <row r="55" spans="1:19" ht="30" customHeight="1">
+      <c r="A55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L54" s="2" t="s">
+      <c r="B55" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="M54" s="25" t="s">
+      <c r="I55" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-    </row>
-    <row r="55" spans="1:18" ht="30" customHeight="1">
-      <c r="A55" s="3" t="s">
+      <c r="J55" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="38" t="s">
+        <v>556</v>
+      </c>
+      <c r="R55" s="38"/>
+      <c r="S55" s="38"/>
+    </row>
+    <row r="56" spans="1:19" ht="30" customHeight="1">
+      <c r="A56" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="L55" s="2" t="s">
+      <c r="B56" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="M55" s="17" t="s">
+      <c r="I56" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-    </row>
-    <row r="56" spans="1:18" ht="30" customHeight="1">
-      <c r="A56" s="3" t="s">
+      <c r="J56" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+    </row>
+    <row r="57" spans="1:19" ht="30" customHeight="1">
+      <c r="A57" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="L56" s="2" t="s">
+      <c r="B57" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="M56" s="17" t="s">
+      <c r="I57" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-    </row>
-    <row r="57" spans="1:18" ht="30" customHeight="1">
-      <c r="A57" s="3" t="s">
+      <c r="J57" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+    </row>
+    <row r="58" spans="1:19" ht="30" customHeight="1">
+      <c r="A58" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="L57" s="2" t="s">
+      <c r="B58" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="M57" s="17" t="s">
+      <c r="I58" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-    </row>
-    <row r="58" spans="1:18" ht="30" customHeight="1">
-      <c r="A58" s="3" t="s">
+      <c r="J58" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+    </row>
+    <row r="59" spans="1:19" ht="30" customHeight="1">
+      <c r="A59" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="L58" s="2" t="s">
+      <c r="B59" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="M58" s="17" t="s">
+      <c r="I59" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-    </row>
-    <row r="59" spans="1:18" ht="30" customHeight="1">
-      <c r="A59" s="3" t="s">
+      <c r="J59" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+    </row>
+    <row r="60" spans="1:19" ht="30" customHeight="1">
+      <c r="A60" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="L59" s="2" t="s">
+      <c r="B60" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="M59" s="17" t="s">
+      <c r="I60" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-    </row>
-    <row r="60" spans="1:18" ht="30" customHeight="1">
-      <c r="A60" s="3" t="s">
+      <c r="J60" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+    </row>
+    <row r="61" spans="1:19" ht="30" customHeight="1">
+      <c r="A61" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="L60" s="2" t="s">
+      <c r="B61" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="M60" s="17" t="s">
+      <c r="I61" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-    </row>
-    <row r="61" spans="1:18" ht="30" customHeight="1">
-      <c r="A61" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="M61" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="L61" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="M61" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-    </row>
-    <row r="62" spans="1:18" ht="15.75">
-      <c r="A62" s="13" t="s">
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="38" t="s">
+        <v>562</v>
+      </c>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+    </row>
+    <row r="62" spans="1:19" ht="15.75">
+      <c r="A62" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-    </row>
-    <row r="63" spans="1:18" ht="16.5">
-      <c r="A63" s="15" t="s">
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="S62" s="35"/>
+    </row>
+    <row r="63" spans="1:19" ht="16.5">
+      <c r="A63" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
       <c r="H63" s="4" t="s">
         <v>74</v>
       </c>
@@ -5780,686 +6181,830 @@
       <c r="L63" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R63" s="11"/>
-    </row>
-    <row r="64" spans="1:18" ht="30" customHeight="1">
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="S63" s="7"/>
+    </row>
+    <row r="64" spans="1:19" ht="30" customHeight="1">
       <c r="A64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="38" t="s">
+        <v>563</v>
+      </c>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+    </row>
+    <row r="65" spans="1:19" ht="30" customHeight="1">
+      <c r="A65" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="M64" s="17" t="s">
+      <c r="B65" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K65" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-    </row>
-    <row r="65" spans="1:18" ht="30" customHeight="1">
-      <c r="A65" s="3" t="s">
+      <c r="L65" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="38" t="s">
+        <v>564</v>
+      </c>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+    </row>
+    <row r="66" spans="1:19" ht="30" customHeight="1">
+      <c r="A66" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="J65" s="2" t="s">
+      <c r="B66" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="M65" s="17" t="s">
+      <c r="K66" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-    </row>
-    <row r="66" spans="1:18" ht="30" customHeight="1">
-      <c r="A66" s="3" t="s">
+      <c r="L66" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="M66" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="38" t="s">
+        <v>565</v>
+      </c>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+    </row>
+    <row r="67" spans="1:19" ht="30" customHeight="1">
+      <c r="A67" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="J66" s="2" t="s">
+      <c r="B67" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="M66" s="17" t="s">
+      <c r="K67" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-    </row>
-    <row r="67" spans="1:18" ht="30" customHeight="1">
-      <c r="A67" s="3" t="s">
+      <c r="L67" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="R67" s="38"/>
+      <c r="S67" s="38"/>
+    </row>
+    <row r="68" spans="1:19" ht="30" customHeight="1">
+      <c r="A68" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="J67" s="2" t="s">
+      <c r="B68" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="M67" s="17" t="s">
+      <c r="K68" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-    </row>
-    <row r="68" spans="1:18" ht="30" customHeight="1">
-      <c r="A68" s="3" t="s">
+      <c r="L68" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="R68" s="38"/>
+      <c r="S68" s="38"/>
+    </row>
+    <row r="69" spans="1:19" ht="30" customHeight="1">
+      <c r="A69" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="J68" s="2" t="s">
+      <c r="B69" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="M68" s="17" t="s">
+      <c r="K69" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-    </row>
-    <row r="69" spans="1:18" ht="30" customHeight="1">
-      <c r="A69" s="3" t="s">
+      <c r="L69" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="R69" s="38"/>
+      <c r="S69" s="38"/>
+    </row>
+    <row r="70" spans="1:19" ht="30" customHeight="1">
+      <c r="A70" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B69" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="J69" s="2" t="s">
+      <c r="B70" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="M69" s="17" t="s">
+      <c r="K70" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-    </row>
-    <row r="70" spans="1:18" ht="30" customHeight="1">
-      <c r="A70" s="3" t="s">
+      <c r="L70" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="R70" s="38"/>
+      <c r="S70" s="38"/>
+    </row>
+    <row r="71" spans="1:19" ht="30" customHeight="1">
+      <c r="A71" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="J70" s="2" t="s">
+      <c r="B71" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="M70" s="17" t="s">
+      <c r="K71" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-    </row>
-    <row r="71" spans="1:18" ht="30" customHeight="1">
-      <c r="A71" s="3" t="s">
+      <c r="L71" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="R71" s="38"/>
+      <c r="S71" s="38"/>
+    </row>
+    <row r="72" spans="1:19" ht="30" customHeight="1">
+      <c r="A72" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="J71" s="2" t="s">
+      <c r="B72" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="M71" s="17" t="s">
+      <c r="K72" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-    </row>
-    <row r="72" spans="1:18" ht="30" customHeight="1">
-      <c r="A72" s="3" t="s">
+      <c r="L72" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="R72" s="38"/>
+      <c r="S72" s="38"/>
+    </row>
+    <row r="73" spans="1:19" ht="30" customHeight="1">
+      <c r="A73" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="J72" s="2" t="s">
+      <c r="B73" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="I73" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="M72" s="17" t="s">
+      <c r="K73" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-    </row>
-    <row r="73" spans="1:18" ht="30" customHeight="1">
-      <c r="A73" s="3" t="s">
+      <c r="L73" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="R73" s="38"/>
+      <c r="S73" s="38"/>
+    </row>
+    <row r="74" spans="1:19" ht="30" customHeight="1">
+      <c r="A74" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="J73" s="2" t="s">
+      <c r="B74" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="M73" s="17" t="s">
+      <c r="K74" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-    </row>
-    <row r="74" spans="1:18" ht="30" customHeight="1">
-      <c r="A74" s="3" t="s">
+      <c r="L74" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="R74" s="38"/>
+      <c r="S74" s="38"/>
+    </row>
+    <row r="75" spans="1:19" ht="30" customHeight="1">
+      <c r="A75" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="J74" s="2" t="s">
+      <c r="B75" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="J75" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="M74" s="17" t="s">
+      <c r="K75" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-    </row>
-    <row r="75" spans="1:18" ht="30" customHeight="1">
-      <c r="A75" s="3" t="s">
+      <c r="L75" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="38" t="s">
+        <v>574</v>
+      </c>
+      <c r="R75" s="38"/>
+      <c r="S75" s="38"/>
+    </row>
+    <row r="76" spans="1:19" ht="30" customHeight="1">
+      <c r="A76" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="J75" s="2" t="s">
+      <c r="B76" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="J76" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="M75" s="17" t="s">
+      <c r="K76" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-    </row>
-    <row r="76" spans="1:18" ht="30" customHeight="1">
-      <c r="A76" s="3" t="s">
+      <c r="L76" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="R76" s="38"/>
+      <c r="S76" s="38"/>
+    </row>
+    <row r="77" spans="1:19" ht="30" customHeight="1">
+      <c r="A77" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="I76" s="2" t="s">
+      <c r="B77" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="M76" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-    </row>
-    <row r="77" spans="1:18" ht="30" customHeight="1">
-      <c r="A77" s="3" t="s">
+      <c r="L77" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="38" t="s">
+        <v>576</v>
+      </c>
+      <c r="R77" s="38"/>
+      <c r="S77" s="38"/>
+    </row>
+    <row r="78" spans="1:19" ht="30" customHeight="1">
+      <c r="A78" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="J77" s="2" t="s">
+      <c r="B78" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="M77" s="17" t="s">
+      <c r="K78" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16"/>
-    </row>
-    <row r="78" spans="1:18" ht="30" customHeight="1">
-      <c r="A78" s="3" t="s">
+      <c r="L78" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="R78" s="38"/>
+      <c r="S78" s="38"/>
+    </row>
+    <row r="79" spans="1:19" ht="15.75">
+      <c r="A79" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="25"/>
+      <c r="S79" s="35"/>
+    </row>
+    <row r="80" spans="1:19" ht="15.75">
+      <c r="A80" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="32"/>
+      <c r="L80" s="32"/>
+      <c r="M80" s="32"/>
+      <c r="N80" s="32"/>
+      <c r="O80" s="32"/>
+      <c r="P80" s="32"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="33" t="s">
+        <v>515</v>
+      </c>
+      <c r="S80" s="37"/>
+    </row>
+    <row r="81" spans="1:19" ht="30" customHeight="1">
+      <c r="A81" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="M78" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16"/>
-    </row>
-    <row r="79" spans="1:18" ht="15.75">
-      <c r="A79" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
-    </row>
-    <row r="80" spans="1:18" ht="15.75">
-      <c r="A80" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R80" s="11"/>
-    </row>
-    <row r="81" spans="1:18" ht="30" customHeight="1">
-      <c r="A81" s="23" t="s">
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="R81" s="38"/>
+      <c r="S81" s="38"/>
+    </row>
+    <row r="82" spans="1:19" ht="30" customHeight="1">
+      <c r="A82" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-    </row>
-    <row r="82" spans="1:18" ht="30" customHeight="1">
-      <c r="A82" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="30"/>
+      <c r="Q82" s="38" t="s">
+        <v>581</v>
+      </c>
+      <c r="R82" s="38"/>
+      <c r="S82" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="M64:P64"/>
-    <mergeCell ref="M65:P65"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="M44:P44"/>
+  <mergeCells count="162">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="D81:P81"/>
+    <mergeCell ref="D82:P82"/>
+    <mergeCell ref="A80:P80"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="A32:N32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="A79:N79"/>
+    <mergeCell ref="M77:P77"/>
+    <mergeCell ref="M78:P78"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="A62:N62"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="C4:S4"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
     <mergeCell ref="M45:P45"/>
     <mergeCell ref="M46:P46"/>
     <mergeCell ref="M52:P52"/>
@@ -6484,182 +7029,21 @@
     <mergeCell ref="M68:P68"/>
     <mergeCell ref="M69:P69"/>
     <mergeCell ref="M70:P70"/>
-    <mergeCell ref="M71:P71"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="A79:N79"/>
-    <mergeCell ref="M77:P77"/>
-    <mergeCell ref="M78:P78"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="A62:N62"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="A40:N40"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="A32:N32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="A23:N23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="D81:P81"/>
-    <mergeCell ref="D82:P82"/>
-    <mergeCell ref="A80:P80"/>
-    <mergeCell ref="Q80:R80"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="Q82:R82"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="M44:P44"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="61" fitToHeight="2" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/source/burgerKing/src/main/resources/template/Guest Is King.xlsx
+++ b/source/burgerKing/src/main/resources/template/Guest Is King.xlsx
@@ -1676,10 +1676,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>${heads.date}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>${heads.manager}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1750,10 +1746,6 @@
   </si>
   <si>
     <t>${modules.qingjie_waibu.questions.C01.testDetailInfo.fieldInfos.SCORE}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${modules.qingjie_waibu.questions.C01.testDetailInfo.fieldInfos.DESC}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -3214,6 +3206,14 @@
   </si>
   <si>
     <t xml:space="preserve"> &lt;jt:forEach copyRight="true" items="${modules.pingguzongjie.questions.pg_guanzhu.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${heads.date}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modules.qingjie_waibu.questions.C01.testDetailInfo.fieldInfos.DESC}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3515,19 +3515,22 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3542,6 +3545,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3549,6 +3555,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3580,24 +3598,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3909,7 +3909,7 @@
   <dimension ref="A1:U82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U53" sqref="U53"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3919,162 +3919,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="28.35" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
     </row>
     <row r="2" spans="1:21" ht="15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="U2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15">
+      <c r="A3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="U2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="15">
-      <c r="A3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="20"/>
+      <c r="P3" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="17" t="s">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" t="s">
+        <v>155</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15">
+      <c r="A4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" t="s">
-        <v>157</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15">
-      <c r="A4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
       <c r="U4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
       <c r="U5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="16.5">
-      <c r="A6" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="A6" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="4" t="s">
         <v>74</v>
       </c>
@@ -4090,15 +4090,15 @@
       <c r="L6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="S6" s="7"/>
     </row>
@@ -4106,304 +4106,304 @@
       <c r="A7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="38" t="s">
-        <v>516</v>
-      </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
+      <c r="M7" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="M8" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="38" t="s">
-        <v>517</v>
-      </c>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="M9" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="38" t="s">
-        <v>518</v>
-      </c>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="M10" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:21" ht="30" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="M11" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="38" t="s">
-        <v>520</v>
-      </c>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
     </row>
     <row r="12" spans="1:21" ht="30" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="M12" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
     </row>
     <row r="13" spans="1:21" ht="30" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="M13" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="38" t="s">
-        <v>522</v>
-      </c>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
     </row>
     <row r="14" spans="1:21" ht="15.75">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="S14" s="35"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="S14" s="13"/>
     </row>
     <row r="15" spans="1:21" ht="16.5">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="4" t="s">
         <v>74</v>
       </c>
@@ -4419,15 +4419,15 @@
       <c r="L15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="34" t="s">
-        <v>511</v>
+      <c r="R15" s="12" t="s">
+        <v>509</v>
       </c>
       <c r="S15" s="7"/>
     </row>
@@ -4435,304 +4435,304 @@
       <c r="A16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="M16" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="38" t="s">
-        <v>523</v>
-      </c>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
     </row>
     <row r="17" spans="1:19" ht="30" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="38" t="s">
-        <v>529</v>
-      </c>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
+        <v>201</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
     </row>
     <row r="18" spans="1:19" ht="30" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="M18" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="38" t="s">
-        <v>528</v>
-      </c>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
     </row>
     <row r="19" spans="1:19" ht="30" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="M19" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="38" t="s">
-        <v>527</v>
-      </c>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="M20" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="38" t="s">
-        <v>526</v>
-      </c>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="M21" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="38" t="s">
-        <v>525</v>
-      </c>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
     </row>
     <row r="22" spans="1:19" ht="30" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="K22" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M22" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="38" t="s">
-        <v>524</v>
-      </c>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
     </row>
     <row r="23" spans="1:19" ht="15.75">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="S23" s="35"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="S23" s="13"/>
     </row>
     <row r="24" spans="1:19" ht="16.5">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="4" t="s">
         <v>74</v>
       </c>
@@ -4748,15 +4748,15 @@
       <c r="L24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="34" t="s">
-        <v>512</v>
+      <c r="R24" s="12" t="s">
+        <v>510</v>
       </c>
       <c r="S24" s="7"/>
     </row>
@@ -4764,304 +4764,304 @@
       <c r="A25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="M25" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="38" t="s">
-        <v>530</v>
-      </c>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
     </row>
     <row r="26" spans="1:19" ht="30" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="M26" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="38" t="s">
-        <v>531</v>
-      </c>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
     </row>
     <row r="27" spans="1:19" ht="30" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="M27" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="38" t="s">
-        <v>532</v>
-      </c>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
     </row>
     <row r="28" spans="1:19" ht="30" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="M28" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="38" t="s">
-        <v>533</v>
-      </c>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
     </row>
     <row r="29" spans="1:19" ht="30" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="M29" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="38" t="s">
-        <v>534</v>
-      </c>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
     </row>
     <row r="30" spans="1:19" ht="30" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="M30" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
     </row>
     <row r="31" spans="1:19" ht="30" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
       <c r="H31" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="M31" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
     </row>
     <row r="32" spans="1:19" ht="15.75">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="S32" s="35"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="S32" s="13"/>
     </row>
     <row r="33" spans="1:19" ht="16.5">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
       <c r="H33" s="1" t="s">
         <v>74</v>
       </c>
@@ -5077,281 +5077,281 @@
       <c r="L33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M33" s="20" t="s">
+      <c r="M33" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="22"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="24"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="S33" s="36"/>
+        <v>511</v>
+      </c>
+      <c r="S33" s="14"/>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
       <c r="H34" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
+      <c r="M34" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
     </row>
     <row r="35" spans="1:19" ht="30" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
       <c r="H35" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="M35" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="38" t="s">
-        <v>539</v>
-      </c>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
     </row>
     <row r="36" spans="1:19" ht="30" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
       <c r="H36" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="M36" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="38" t="s">
-        <v>540</v>
-      </c>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
       <c r="H37" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="M37" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="38" t="s">
-        <v>541</v>
-      </c>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
       <c r="H38" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="M38" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
     </row>
     <row r="39" spans="1:19" ht="30" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
       <c r="H39" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="M39" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="38" t="s">
-        <v>543</v>
-      </c>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
     </row>
     <row r="40" spans="1:19" ht="15.75">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="S40" s="35"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="S40" s="13"/>
     </row>
     <row r="41" spans="1:19" ht="16.5">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
       <c r="H41" s="4" t="s">
         <v>74</v>
       </c>
@@ -5367,15 +5367,15 @@
       <c r="L41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M41" s="12" t="s">
+      <c r="M41" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
       <c r="Q41" s="7"/>
-      <c r="R41" s="34" t="s">
-        <v>514</v>
+      <c r="R41" s="12" t="s">
+        <v>512</v>
       </c>
       <c r="S41" s="7"/>
     </row>
@@ -5383,265 +5383,265 @@
       <c r="A42" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
       <c r="H42" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="38" t="s">
-        <v>545</v>
-      </c>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
+      <c r="M42" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
       <c r="H43" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="M43" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="L43" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="M43" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
     </row>
     <row r="44" spans="1:19" ht="30" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
       <c r="H44" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="M44" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="L44" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="38" t="s">
-        <v>547</v>
-      </c>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
     </row>
     <row r="45" spans="1:19" ht="30" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
       <c r="H45" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="M45" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="38" t="s">
-        <v>548</v>
-      </c>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
       <c r="H46" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="M46" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="L46" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="M46" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="38" t="s">
-        <v>549</v>
-      </c>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
     </row>
     <row r="47" spans="1:19" ht="30" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
       <c r="H47" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="M47" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="L47" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
     </row>
     <row r="48" spans="1:19" ht="15.75">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="S48" s="35"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="S48" s="13"/>
     </row>
     <row r="49" spans="1:19" ht="16.5">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
       <c r="H49" s="1" t="s">
         <v>74</v>
       </c>
@@ -5657,515 +5657,515 @@
       <c r="L49" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M49" s="20" t="s">
+      <c r="M49" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="22"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="24"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="S49" s="36"/>
+        <v>507</v>
+      </c>
+      <c r="S49" s="14"/>
     </row>
     <row r="50" spans="1:19" ht="30" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
+      <c r="B50" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
       <c r="H50" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="M50" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="L50" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="M50" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="38" t="s">
-        <v>551</v>
-      </c>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
     </row>
     <row r="51" spans="1:19" ht="30" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
       <c r="H51" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="M51" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="M51" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="38" t="s">
-        <v>552</v>
-      </c>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
     </row>
     <row r="52" spans="1:19" ht="30" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
       <c r="H52" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="M52" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="L52" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="M52" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
     </row>
     <row r="53" spans="1:19" ht="30" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
       <c r="H53" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="M53" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="L53" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="M53" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="38" t="s">
-        <v>554</v>
-      </c>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
     </row>
     <row r="54" spans="1:19" ht="30" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
       <c r="H54" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="M54" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="L54" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="M54" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="38" t="s">
-        <v>555</v>
-      </c>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
     </row>
     <row r="55" spans="1:19" ht="30" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
       <c r="H55" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="M55" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="L55" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="M55" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="R55" s="38"/>
-      <c r="S55" s="38"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
     </row>
     <row r="56" spans="1:19" ht="30" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
       <c r="H56" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="L56" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="M56" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="L56" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="M56" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="38" t="s">
-        <v>557</v>
-      </c>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
     </row>
     <row r="57" spans="1:19" ht="30" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
       <c r="H57" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="M57" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="L57" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="M57" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
     </row>
     <row r="58" spans="1:19" ht="30" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
       <c r="H58" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="M58" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="L58" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="M58" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="38" t="s">
-        <v>559</v>
-      </c>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
     </row>
     <row r="59" spans="1:19" ht="30" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
       <c r="H59" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J59" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="L59" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="M59" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="L59" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="M59" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="38" t="s">
-        <v>560</v>
-      </c>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
     </row>
     <row r="60" spans="1:19" ht="30" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
       <c r="H60" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="L60" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="M60" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="L60" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="M60" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="38" t="s">
-        <v>561</v>
-      </c>
-      <c r="R60" s="38"/>
-      <c r="S60" s="38"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
     </row>
     <row r="61" spans="1:19" ht="30" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
       <c r="H61" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="M61" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="L61" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="M61" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
     </row>
     <row r="62" spans="1:19" ht="15.75">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="S62" s="35"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="S62" s="13"/>
     </row>
     <row r="63" spans="1:19" ht="16.5">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
       <c r="H63" s="4" t="s">
         <v>74</v>
       </c>
@@ -6181,15 +6181,15 @@
       <c r="L63" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M63" s="12" t="s">
+      <c r="M63" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
       <c r="Q63" s="7"/>
-      <c r="R63" s="34" t="s">
-        <v>510</v>
+      <c r="R63" s="12" t="s">
+        <v>508</v>
       </c>
       <c r="S63" s="7"/>
     </row>
@@ -6197,684 +6197,684 @@
       <c r="A64" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
       <c r="H64" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="L64" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="K64" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="M64" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="38" t="s">
-        <v>563</v>
-      </c>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
+      <c r="M64" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
     </row>
     <row r="65" spans="1:19" ht="30" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
       <c r="H65" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="M65" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="L65" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="M65" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="38" t="s">
-        <v>564</v>
-      </c>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
     </row>
     <row r="66" spans="1:19" ht="30" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
       <c r="H66" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="M66" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="L66" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="M66" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="38" t="s">
-        <v>565</v>
-      </c>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
     </row>
     <row r="67" spans="1:19" ht="30" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
       <c r="H67" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="K67" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="L67" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="M67" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="L67" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M67" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="38" t="s">
-        <v>566</v>
-      </c>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
     </row>
     <row r="68" spans="1:19" ht="30" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
       <c r="H68" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="K68" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="M68" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="L68" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="M68" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="38" t="s">
-        <v>567</v>
-      </c>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
     </row>
     <row r="69" spans="1:19" ht="30" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
       <c r="H69" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="M69" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="L69" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="M69" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="38" t="s">
-        <v>568</v>
-      </c>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
     </row>
     <row r="70" spans="1:19" ht="30" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
       <c r="H70" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="L70" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="M70" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="L70" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="M70" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="38" t="s">
-        <v>569</v>
-      </c>
-      <c r="R70" s="38"/>
-      <c r="S70" s="38"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
     </row>
     <row r="71" spans="1:19" ht="30" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
       <c r="H71" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="J71" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="K71" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="M71" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="L71" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="M71" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="R71" s="38"/>
-      <c r="S71" s="38"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
     </row>
     <row r="72" spans="1:19" ht="30" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
       <c r="H72" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="J72" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="K72" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="L72" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="M72" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="L72" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="M72" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="38" t="s">
-        <v>571</v>
-      </c>
-      <c r="R72" s="38"/>
-      <c r="S72" s="38"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
     </row>
     <row r="73" spans="1:19" ht="30" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
       <c r="H73" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="K73" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="L73" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="M73" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="L73" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="M73" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="R73" s="38"/>
-      <c r="S73" s="38"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
     </row>
     <row r="74" spans="1:19" ht="30" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
       <c r="H74" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J74" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="K74" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="M74" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="L74" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="M74" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="R74" s="38"/>
-      <c r="S74" s="38"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
     </row>
     <row r="75" spans="1:19" ht="30" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
       <c r="H75" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="K75" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="M75" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="L75" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="M75" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="38" t="s">
-        <v>574</v>
-      </c>
-      <c r="R75" s="38"/>
-      <c r="S75" s="38"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
     </row>
     <row r="76" spans="1:19" ht="30" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
       <c r="H76" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="K76" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="K76" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="M76" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="38" t="s">
-        <v>575</v>
-      </c>
-      <c r="R76" s="38"/>
-      <c r="S76" s="38"/>
+      <c r="M76" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
     </row>
     <row r="77" spans="1:19" ht="30" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
       <c r="H77" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="J77" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="L77" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="M77" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="L77" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="M77" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="38" t="s">
-        <v>576</v>
-      </c>
-      <c r="R77" s="38"/>
-      <c r="S77" s="38"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
     </row>
     <row r="78" spans="1:19" ht="30" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
       <c r="H78" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J78" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="K78" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="L78" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="M78" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="L78" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="M78" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="38" t="s">
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
+    </row>
+    <row r="79" spans="1:19" ht="15.75">
+      <c r="A79" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="31"/>
+      <c r="S79" s="13"/>
+    </row>
+    <row r="80" spans="1:19" ht="15.75">
+      <c r="A80" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="S80" s="15"/>
+    </row>
+    <row r="81" spans="1:19" ht="30" customHeight="1">
+      <c r="A81" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="R81" s="16"/>
+      <c r="S81" s="16"/>
+    </row>
+    <row r="82" spans="1:19" ht="30" customHeight="1">
+      <c r="A82" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="36" t="s">
         <v>577</v>
       </c>
-      <c r="R78" s="38"/>
-      <c r="S78" s="38"/>
-    </row>
-    <row r="79" spans="1:19" ht="15.75">
-      <c r="A79" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
-      <c r="S79" s="35"/>
-    </row>
-    <row r="80" spans="1:19" ht="15.75">
-      <c r="A80" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="32"/>
-      <c r="L80" s="32"/>
-      <c r="M80" s="32"/>
-      <c r="N80" s="32"/>
-      <c r="O80" s="32"/>
-      <c r="P80" s="32"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="33" t="s">
-        <v>515</v>
-      </c>
-      <c r="S80" s="37"/>
-    </row>
-    <row r="81" spans="1:19" ht="30" customHeight="1">
-      <c r="A81" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="30" t="s">
-        <v>578</v>
-      </c>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="30"/>
-      <c r="N81" s="30"/>
-      <c r="O81" s="30"/>
-      <c r="P81" s="30"/>
-      <c r="Q81" s="38" t="s">
-        <v>580</v>
-      </c>
-      <c r="R81" s="38"/>
-      <c r="S81" s="38"/>
-    </row>
-    <row r="82" spans="1:19" ht="30" customHeight="1">
-      <c r="A82" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="30" t="s">
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="30"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="30"/>
-      <c r="Q82" s="38" t="s">
-        <v>581</v>
-      </c>
-      <c r="R82" s="38"/>
-      <c r="S82" s="38"/>
+      <c r="R82" s="16"/>
+      <c r="S82" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="162">
@@ -6915,6 +6915,17 @@
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="M22:P22"/>
     <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B39:G39"/>
@@ -6938,6 +6949,9 @@
     <mergeCell ref="B44:G44"/>
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="B46:G46"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="M44:P44"/>
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="B59:G59"/>
@@ -6978,17 +6992,6 @@
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="M15:P15"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="M71:P71"/>
     <mergeCell ref="P2:S2"/>
@@ -7011,6 +7014,8 @@
     <mergeCell ref="M53:P53"/>
     <mergeCell ref="M54:P54"/>
     <mergeCell ref="M56:P56"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="M63:P63"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
@@ -7035,11 +7040,6 @@
     <mergeCell ref="M58:P58"/>
     <mergeCell ref="M59:P59"/>
     <mergeCell ref="M60:P60"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="M44:P44"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
